--- a/biology/Botanique/Iberis/Iberis.xlsx
+++ b/biology/Botanique/Iberis/Iberis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iberis (les Ibéris ou les Ibérides) est un genre constitué de vingt-sept espèces de plantes herbacées ou de sous-arbrisseaux de la famille des Brassicaceae.
 Ces plantes sont originaires de la région méditerranéenne, de l'Espagne à la Perse. Certaines espèces sont cultivées comme plantes d'ornement partout dans le monde et se sont naturalisées, notamment en Grande-Bretagne, en Amérique du Nord. Les fleurs sont blanches ou violettes.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Hippolyte Coste, Iberis vient de ce que ce sont des plantes croissant dans l’Ibérie, le Sud-Ouest de l’Europe. Pour Paul Victor Fournier, cela vient du Grec ancien, nom de plante, peut-être de Lepidium ; probablement d’Ibérie, ancien nom de l’Espagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Hippolyte Coste, Iberis vient de ce que ce sont des plantes croissant dans l’Ibérie, le Sud-Ouest de l’Europe. Pour Paul Victor Fournier, cela vient du Grec ancien, nom de plante, peut-être de Lepidium ; probablement d’Ibérie, ancien nom de l’Espagne.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Iberis amara, Ibéris amer
 Iberis atlantica
@@ -588,7 +604,7 @@
 Iberis sempervirens, Ibéris toujours vert
 Iberis simplex
 Iberis spathulata, Ibéris spatulé
-Iberis umbellata, Tabouret lilas[2]</t>
+Iberis umbellata, Tabouret lilas</t>
         </is>
       </c>
     </row>
